--- a/folders/04_checks/02_outputs/hfc_outputs.xlsx
+++ b/folders/04_checks/02_outputs/hfc_outputs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>serial</t>
   </si>
@@ -178,6 +178,126 @@
   </si>
   <si>
     <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
   </si>
   <si>
     <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
@@ -243,28 +363,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -272,16 +392,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -298,16 +418,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -324,16 +444,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -350,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1">
         <v>22</v>

--- a/folders/04_checks/02_outputs/hfc_outputs.xlsx
+++ b/folders/04_checks/02_outputs/hfc_outputs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="120">
   <si>
     <t>serial</t>
   </si>
@@ -298,6 +298,66 @@
   </si>
   <si>
     <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
   </si>
   <si>
     <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
@@ -363,28 +423,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -392,16 +452,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -418,16 +478,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -444,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -470,16 +530,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1">
         <v>22</v>

--- a/folders/04_checks/02_outputs/hfc_outputs.xlsx
+++ b/folders/04_checks/02_outputs/hfc_outputs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>serial</t>
   </si>
@@ -298,6 +298,66 @@
   </si>
   <si>
     <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
   </si>
   <si>
     <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
@@ -423,28 +483,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -452,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -478,16 +538,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -504,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -530,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1">
         <v>22</v>

--- a/folders/04_checks/02_outputs/hfc_outputs.xlsx
+++ b/folders/04_checks/02_outputs/hfc_outputs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="260">
   <si>
     <t>serial</t>
   </si>
@@ -556,6 +556,186 @@
   </si>
   <si>
     <t>serial</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>__000001</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>__000001</t>
+  </si>
+  <si>
+    <t>submissiondate</t>
+  </si>
+  <si>
+    <t>19nov2015</t>
+  </si>
+  <si>
+    <t>23dec2015</t>
+  </si>
+  <si>
+    <t>20nov2015</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>enumid</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>uuid:2b2763e1-71b6-4e1e-8023-c15cdf7fa39d</t>
+  </si>
+  <si>
+    <t>uuid:faded75e-de86-11e8-9f32-f2801f194957</t>
+  </si>
+  <si>
+    <t>uuid:faddd692-de86-11e8-9f32-f2801f111128</t>
+  </si>
+  <si>
+    <t>uuid:fade4d02-de86-11e8-9f32-f2801f197841</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Total Compared</t>
+  </si>
+  <si>
+    <t>Percent Difference</t>
+  </si>
+  <si>
+    <t>__000001</t>
   </si>
   <si>
     <t>submissiondate</t>
@@ -663,28 +843,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
@@ -692,16 +872,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -718,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="F3" s="1">
         <v>22</v>
@@ -744,16 +924,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -770,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1">
         <v>7</v>
